--- a/Dirtified_data/flood_data/Damages.xlsx
+++ b/Dirtified_data/flood_data/Damages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arild\Documents\machinelearning\big-scale\Big-Scale-Tesla-2020\Dirtified_data\flood_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D541BAB6-66C4-4A26-8D85-7D372EE26EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEFAAAD-642E-4A33-BC70-EE274274305C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,657 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Register #</t>
   </si>
   <si>
-    <t>Damage (USD)</t>
+    <t>Damage (USD)'</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column19</t>
+  </si>
+  <si>
+    <t>Column20</t>
+  </si>
+  <si>
+    <t>Column21</t>
+  </si>
+  <si>
+    <t>Column22</t>
+  </si>
+  <si>
+    <t>Column23</t>
+  </si>
+  <si>
+    <t>Column24</t>
+  </si>
+  <si>
+    <t>Column25</t>
+  </si>
+  <si>
+    <t>Column26</t>
+  </si>
+  <si>
+    <t>Column27</t>
+  </si>
+  <si>
+    <t>Column28</t>
+  </si>
+  <si>
+    <t>Column29</t>
+  </si>
+  <si>
+    <t>Column30</t>
+  </si>
+  <si>
+    <t>Column31</t>
+  </si>
+  <si>
+    <t>Column32</t>
+  </si>
+  <si>
+    <t>Column33</t>
+  </si>
+  <si>
+    <t>Column34</t>
+  </si>
+  <si>
+    <t>Column35</t>
+  </si>
+  <si>
+    <t>Column36</t>
+  </si>
+  <si>
+    <t>Column37</t>
+  </si>
+  <si>
+    <t>Column38</t>
+  </si>
+  <si>
+    <t>Column39</t>
+  </si>
+  <si>
+    <t>Column40</t>
+  </si>
+  <si>
+    <t>Column41</t>
+  </si>
+  <si>
+    <t>Column42</t>
+  </si>
+  <si>
+    <t>Column43</t>
+  </si>
+  <si>
+    <t>Column44</t>
+  </si>
+  <si>
+    <t>Column45</t>
+  </si>
+  <si>
+    <t>Column46</t>
+  </si>
+  <si>
+    <t>Column47</t>
+  </si>
+  <si>
+    <t>Column48</t>
+  </si>
+  <si>
+    <t>Column49</t>
+  </si>
+  <si>
+    <t>Column50</t>
+  </si>
+  <si>
+    <t>Column51</t>
+  </si>
+  <si>
+    <t>Column52</t>
+  </si>
+  <si>
+    <t>Column53</t>
+  </si>
+  <si>
+    <t>Column54</t>
+  </si>
+  <si>
+    <t>Column55</t>
+  </si>
+  <si>
+    <t>Column56</t>
+  </si>
+  <si>
+    <t>Column57</t>
+  </si>
+  <si>
+    <t>Column58</t>
+  </si>
+  <si>
+    <t>Column59</t>
+  </si>
+  <si>
+    <t>Column60</t>
+  </si>
+  <si>
+    <t>Column61</t>
+  </si>
+  <si>
+    <t>Column62</t>
+  </si>
+  <si>
+    <t>Column63</t>
+  </si>
+  <si>
+    <t>Column64</t>
+  </si>
+  <si>
+    <t>Column65</t>
+  </si>
+  <si>
+    <t>Column66</t>
+  </si>
+  <si>
+    <t>Column67</t>
+  </si>
+  <si>
+    <t>Column68</t>
+  </si>
+  <si>
+    <t>Column69</t>
+  </si>
+  <si>
+    <t>Column70</t>
+  </si>
+  <si>
+    <t>Column71</t>
+  </si>
+  <si>
+    <t>Column72</t>
+  </si>
+  <si>
+    <t>Column73</t>
+  </si>
+  <si>
+    <t>Column74</t>
+  </si>
+  <si>
+    <t>Column75</t>
+  </si>
+  <si>
+    <t>Column76</t>
+  </si>
+  <si>
+    <t>Column77</t>
+  </si>
+  <si>
+    <t>Column78</t>
+  </si>
+  <si>
+    <t>Column79</t>
+  </si>
+  <si>
+    <t>Column80</t>
+  </si>
+  <si>
+    <t>Column81</t>
+  </si>
+  <si>
+    <t>Column82</t>
+  </si>
+  <si>
+    <t>Column83</t>
+  </si>
+  <si>
+    <t>Column84</t>
+  </si>
+  <si>
+    <t>Column85</t>
+  </si>
+  <si>
+    <t>Column86</t>
+  </si>
+  <si>
+    <t>Column87</t>
+  </si>
+  <si>
+    <t>Column88</t>
+  </si>
+  <si>
+    <t>Column89</t>
+  </si>
+  <si>
+    <t>Column90</t>
+  </si>
+  <si>
+    <t>Column91</t>
+  </si>
+  <si>
+    <t>Column92</t>
+  </si>
+  <si>
+    <t>Column93</t>
+  </si>
+  <si>
+    <t>Column94</t>
+  </si>
+  <si>
+    <t>Column95</t>
+  </si>
+  <si>
+    <t>Column96</t>
+  </si>
+  <si>
+    <t>Column97</t>
+  </si>
+  <si>
+    <t>Column98</t>
+  </si>
+  <si>
+    <t>Column99</t>
+  </si>
+  <si>
+    <t>Column100</t>
+  </si>
+  <si>
+    <t>Column101</t>
+  </si>
+  <si>
+    <t>Column102</t>
+  </si>
+  <si>
+    <t>Column103</t>
+  </si>
+  <si>
+    <t>Column104</t>
+  </si>
+  <si>
+    <t>Column105</t>
+  </si>
+  <si>
+    <t>Column106</t>
+  </si>
+  <si>
+    <t>Column107</t>
+  </si>
+  <si>
+    <t>Column108</t>
+  </si>
+  <si>
+    <t>Column109</t>
+  </si>
+  <si>
+    <t>Column110</t>
+  </si>
+  <si>
+    <t>Column111</t>
+  </si>
+  <si>
+    <t>Column112</t>
+  </si>
+  <si>
+    <t>Column113</t>
+  </si>
+  <si>
+    <t>Column114</t>
+  </si>
+  <si>
+    <t>Column115</t>
+  </si>
+  <si>
+    <t>Column116</t>
+  </si>
+  <si>
+    <t>Column117</t>
+  </si>
+  <si>
+    <t>Column118</t>
+  </si>
+  <si>
+    <t>Column119</t>
+  </si>
+  <si>
+    <t>Column120</t>
+  </si>
+  <si>
+    <t>Column121</t>
+  </si>
+  <si>
+    <t>Column122</t>
+  </si>
+  <si>
+    <t>Column123</t>
+  </si>
+  <si>
+    <t>Column124</t>
+  </si>
+  <si>
+    <t>Column125</t>
+  </si>
+  <si>
+    <t>Column126</t>
+  </si>
+  <si>
+    <t>Column127</t>
+  </si>
+  <si>
+    <t>Column128</t>
+  </si>
+  <si>
+    <t>Column129</t>
+  </si>
+  <si>
+    <t>Column130</t>
+  </si>
+  <si>
+    <t>Column131</t>
+  </si>
+  <si>
+    <t>Column132</t>
+  </si>
+  <si>
+    <t>Column133</t>
+  </si>
+  <si>
+    <t>Column134</t>
+  </si>
+  <si>
+    <t>Column135</t>
+  </si>
+  <si>
+    <t>Column136</t>
+  </si>
+  <si>
+    <t>Column137</t>
+  </si>
+  <si>
+    <t>Column138</t>
+  </si>
+  <si>
+    <t>Column139</t>
+  </si>
+  <si>
+    <t>Column140</t>
+  </si>
+  <si>
+    <t>Column141</t>
+  </si>
+  <si>
+    <t>Column142</t>
+  </si>
+  <si>
+    <t>Column143</t>
+  </si>
+  <si>
+    <t>Column144</t>
+  </si>
+  <si>
+    <t>Column145</t>
+  </si>
+  <si>
+    <t>Column146</t>
+  </si>
+  <si>
+    <t>Column147</t>
+  </si>
+  <si>
+    <t>Column148</t>
+  </si>
+  <si>
+    <t>Column149</t>
+  </si>
+  <si>
+    <t>Column150</t>
+  </si>
+  <si>
+    <t>Column151</t>
+  </si>
+  <si>
+    <t>Column152</t>
+  </si>
+  <si>
+    <t>Column153</t>
+  </si>
+  <si>
+    <t>Column154</t>
+  </si>
+  <si>
+    <t>Column155</t>
+  </si>
+  <si>
+    <t>Column156</t>
+  </si>
+  <si>
+    <t>Column157</t>
+  </si>
+  <si>
+    <t>Column158</t>
+  </si>
+  <si>
+    <t>Column159</t>
+  </si>
+  <si>
+    <t>Column160</t>
+  </si>
+  <si>
+    <t>Column161</t>
+  </si>
+  <si>
+    <t>Column162</t>
+  </si>
+  <si>
+    <t>Column163</t>
+  </si>
+  <si>
+    <t>Column164</t>
+  </si>
+  <si>
+    <t>Column165</t>
+  </si>
+  <si>
+    <t>Column166</t>
+  </si>
+  <si>
+    <t>Column167</t>
+  </si>
+  <si>
+    <t>Column168</t>
+  </si>
+  <si>
+    <t>Column169</t>
+  </si>
+  <si>
+    <t>Column170</t>
+  </si>
+  <si>
+    <t>Column171</t>
+  </si>
+  <si>
+    <t>Column172</t>
+  </si>
+  <si>
+    <t>Column173</t>
+  </si>
+  <si>
+    <t>Column174</t>
+  </si>
+  <si>
+    <t>Column175</t>
+  </si>
+  <si>
+    <t>Column176</t>
+  </si>
+  <si>
+    <t>Column177</t>
+  </si>
+  <si>
+    <t>Column178</t>
+  </si>
+  <si>
+    <t>Column179</t>
+  </si>
+  <si>
+    <t>Column180</t>
+  </si>
+  <si>
+    <t>Column181</t>
+  </si>
+  <si>
+    <t>Column182</t>
+  </si>
+  <si>
+    <t>Column183</t>
+  </si>
+  <si>
+    <t>Column184</t>
+  </si>
+  <si>
+    <t>Column185</t>
+  </si>
+  <si>
+    <t>Column186</t>
+  </si>
+  <si>
+    <t>Column187</t>
+  </si>
+  <si>
+    <t>Column188</t>
+  </si>
+  <si>
+    <t>Column189</t>
+  </si>
+  <si>
+    <t>Column190</t>
+  </si>
+  <si>
+    <t>Column191</t>
+  </si>
+  <si>
+    <t>Column192</t>
+  </si>
+  <si>
+    <t>Column193</t>
+  </si>
+  <si>
+    <t>Column194</t>
+  </si>
+  <si>
+    <t>Column195</t>
+  </si>
+  <si>
+    <t>Column196</t>
+  </si>
+  <si>
+    <t>Column197</t>
+  </si>
+  <si>
+    <t>Column198</t>
+  </si>
+  <si>
+    <t>Column199</t>
+  </si>
+  <si>
+    <t>Column200</t>
+  </si>
+  <si>
+    <t>Column201</t>
+  </si>
+  <si>
+    <t>Column202</t>
+  </si>
+  <si>
+    <t>Column203</t>
+  </si>
+  <si>
+    <t>Column204</t>
+  </si>
+  <si>
+    <t>Column205</t>
+  </si>
+  <si>
+    <t>Column206</t>
+  </si>
+  <si>
+    <t>Column207</t>
+  </si>
+  <si>
+    <t>Column208</t>
+  </si>
+  <si>
+    <t>Column209</t>
+  </si>
+  <si>
+    <t>Column210</t>
+  </si>
+  <si>
+    <t>Column211</t>
+  </si>
+  <si>
+    <t>Column212</t>
+  </si>
+  <si>
+    <t>Column213</t>
+  </si>
+  <si>
+    <t>Column214</t>
+  </si>
+  <si>
+    <t>Column215</t>
   </si>
 </sst>
 </file>
@@ -509,8 +1154,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -595,6 +1241,230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD887979-482A-4E49-87F8-4C0C6D9A2B39}" name="Table1" displayName="Table1" ref="A1:HG3" totalsRowShown="0">
+  <autoFilter ref="A1:HG3" xr:uid="{100C7509-5AE1-46AB-8DC1-1AE61C754F6B}"/>
+  <tableColumns count="215">
+    <tableColumn id="1" xr3:uid="{1E360E42-B1C4-4DCA-A89A-DAD700D9F7BE}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{64E5C0D3-ED71-4848-BAF8-FDEDEE5B6185}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{4F494234-CB90-45C9-A0E1-091055092400}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{744FAC29-260A-4E85-8818-31A7AC416515}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{09C77337-8CFC-4E34-9877-9EB89302A9AD}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{451AB2EC-5B0C-469A-B477-5EA0FEABC034}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{13E564D3-B3D3-464D-9E88-7CFA42DE8654}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{BF77F6DD-4534-4414-8926-CFBA78BD5B35}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{B904D0F0-BFAF-4533-8065-970C48429D8F}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{8C5E17CA-6F75-4685-9B65-79D29C8FD2CF}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{0078B59D-746D-4CCB-ABD5-5F90179C7B7D}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{3435C815-4C37-4429-A64B-55486DC68870}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{CF15F121-66FA-4325-A2DD-3BAB3BE08EC5}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{D94DEAFD-A835-4E1F-A2AD-7A439E0E23C5}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{EC2B7623-C56B-4851-8169-E56802BE5B29}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{26ECAA5C-9AAC-4925-84A0-936CB3ABFE56}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{92DD291E-C5F3-4B67-978B-2F324221E162}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{93655BA7-B046-46D9-B719-FFFAD0EDD62C}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{1C68EDE8-17A8-49C1-9D75-86186BF0B9D1}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{1C75D2C6-58D5-4FCC-84DC-38A40D605BB8}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{EA14CA32-8AA0-4AD1-A485-EE66E28662F7}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{828CC54A-B3F8-4E00-872B-51E28AE92A0B}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{9EC01176-A47F-467A-8D66-A6E6AAF16952}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{9895E99B-68BB-4A54-BBD0-D4058C46DDDA}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{164304AC-CFC6-46AA-8E62-205CB0F4B344}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{32E803E8-A4F4-4A2B-B22A-E202B2EDD4D3}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{713F56F7-B38F-4C78-B3F0-D9A3147F8B09}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{05A13FA3-AFEA-4838-B876-394C3A66AE58}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{8B8EA888-C1D5-46D5-86DB-232D4E715635}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{2F8DE11F-C2CB-4A6D-9E60-D54F8BF3E2A2}" name="Column30"/>
+    <tableColumn id="31" xr3:uid="{9096D759-46D6-430D-B768-6F6BDA020551}" name="Column31"/>
+    <tableColumn id="32" xr3:uid="{6C732DA5-046C-48EF-9AF4-106814FD6D19}" name="Column32"/>
+    <tableColumn id="33" xr3:uid="{963531DA-F251-4989-885C-A0523B86E341}" name="Column33"/>
+    <tableColumn id="34" xr3:uid="{DEEE1804-465F-40F6-9229-DF9580CE0857}" name="Column34"/>
+    <tableColumn id="35" xr3:uid="{E432E80F-5A54-4005-BCD0-D718C6A34ABB}" name="Column35"/>
+    <tableColumn id="36" xr3:uid="{22ECA044-53A9-4318-AC46-03B9ED305B22}" name="Column36"/>
+    <tableColumn id="37" xr3:uid="{1B1D479C-D3D1-4B37-B21E-76B9AFE01E6C}" name="Column37"/>
+    <tableColumn id="38" xr3:uid="{6B5123A4-98B1-4B20-90C5-D16D053D334A}" name="Column38"/>
+    <tableColumn id="39" xr3:uid="{4B4F6493-1A62-4073-BAE9-9F3D61B81412}" name="Column39"/>
+    <tableColumn id="40" xr3:uid="{71169896-C365-4388-91AA-E1167F36C11B}" name="Column40"/>
+    <tableColumn id="41" xr3:uid="{D0851AB4-B627-4954-AFBA-D659D7BBDA9E}" name="Column41"/>
+    <tableColumn id="42" xr3:uid="{2B7F6477-7F1E-478F-B5A1-87BF6411FA53}" name="Column42"/>
+    <tableColumn id="43" xr3:uid="{6A547369-D771-470C-A3C6-8A0E5115295D}" name="Column43"/>
+    <tableColumn id="44" xr3:uid="{59B882F0-1D3C-4FA0-86CB-6E8783DDBB99}" name="Column44"/>
+    <tableColumn id="45" xr3:uid="{37E8F52A-D889-4D30-806F-1D263C8615AD}" name="Column45"/>
+    <tableColumn id="46" xr3:uid="{BD6CAAC3-75CF-468C-AA5D-309CEE8E80B9}" name="Column46"/>
+    <tableColumn id="47" xr3:uid="{B518B63F-ECC7-4157-A02F-8BAEC9187D29}" name="Column47"/>
+    <tableColumn id="48" xr3:uid="{16ED1D7A-4E49-4EF7-A222-38A8A612168D}" name="Column48"/>
+    <tableColumn id="49" xr3:uid="{FFCA5F7B-49F7-496E-93DD-963D726452E8}" name="Column49"/>
+    <tableColumn id="50" xr3:uid="{EF261B05-AB0C-474E-807D-C9CADCE27ECC}" name="Column50"/>
+    <tableColumn id="51" xr3:uid="{C3D1D490-59C8-4883-92C1-99643E1D0038}" name="Column51"/>
+    <tableColumn id="52" xr3:uid="{3D4C4A38-9BA1-4FCA-87F6-D79E59592EA2}" name="Column52"/>
+    <tableColumn id="53" xr3:uid="{9E21E16E-E333-4452-A6E1-F859D49B1043}" name="Column53"/>
+    <tableColumn id="54" xr3:uid="{ABA1D4EF-9456-4F9C-8046-D5CD3EC6588D}" name="Column54"/>
+    <tableColumn id="55" xr3:uid="{7780661C-8539-457B-A981-BA922299E1DB}" name="Column55"/>
+    <tableColumn id="56" xr3:uid="{AA95E4FD-E691-40E2-A988-C7D7D4514461}" name="Column56"/>
+    <tableColumn id="57" xr3:uid="{FACC0BCF-6C1D-44FF-AB33-FEDB7372FABE}" name="Column57"/>
+    <tableColumn id="58" xr3:uid="{E778D904-136B-46D0-822A-718BF73AA762}" name="Column58"/>
+    <tableColumn id="59" xr3:uid="{228698E3-D480-452F-85D1-D49096D4E0FF}" name="Column59"/>
+    <tableColumn id="60" xr3:uid="{97AB2668-C966-438A-ACEB-BFEDF0002039}" name="Column60"/>
+    <tableColumn id="61" xr3:uid="{2A49C4BB-4459-4A6E-8998-27B64D407743}" name="Column61"/>
+    <tableColumn id="62" xr3:uid="{6F5F6DF6-E267-49F7-A1CF-D7B84BD32F38}" name="Column62"/>
+    <tableColumn id="63" xr3:uid="{A0C2879F-850F-44F6-93D4-F0969C7FEF18}" name="Column63"/>
+    <tableColumn id="64" xr3:uid="{9D0F5126-3DE6-4686-A4DB-39B65586B66A}" name="Column64"/>
+    <tableColumn id="65" xr3:uid="{FA699324-DE66-4616-8E8F-99FEDA248228}" name="Column65"/>
+    <tableColumn id="66" xr3:uid="{3929CFE0-576F-4191-BBAC-0A612EE39CF4}" name="Column66"/>
+    <tableColumn id="67" xr3:uid="{7F6B1C5B-4150-47D0-BAB0-BC3824870445}" name="Column67"/>
+    <tableColumn id="68" xr3:uid="{1A879A17-03EC-43EE-8A3B-2622129FBD40}" name="Column68"/>
+    <tableColumn id="69" xr3:uid="{67894A29-38B8-4739-9A46-97FAFE8A3E30}" name="Column69"/>
+    <tableColumn id="70" xr3:uid="{55024E7C-B221-476F-A5F4-79FB1F8AD87A}" name="Column70"/>
+    <tableColumn id="71" xr3:uid="{C4046221-AE0C-4F2F-AD59-A2E0B0B68386}" name="Column71"/>
+    <tableColumn id="72" xr3:uid="{D05944D0-13D2-4803-AC3A-DCAF2D7D0507}" name="Column72"/>
+    <tableColumn id="73" xr3:uid="{64318BD7-8C78-4129-8258-66909EF00E08}" name="Column73"/>
+    <tableColumn id="74" xr3:uid="{9B550E8C-7D2C-4994-B35C-7C28CFEA6016}" name="Column74"/>
+    <tableColumn id="75" xr3:uid="{3B9DCB78-0566-4D24-A3F2-D152E26B15D6}" name="Column75"/>
+    <tableColumn id="76" xr3:uid="{6F30222E-0485-4358-937C-5D3F4E245988}" name="Column76"/>
+    <tableColumn id="77" xr3:uid="{1C5D6C67-D757-4603-AE69-8E11E7880C88}" name="Column77"/>
+    <tableColumn id="78" xr3:uid="{16FD7948-4104-47D1-A90F-780CDF04BB53}" name="Column78"/>
+    <tableColumn id="79" xr3:uid="{2EF533B7-2F19-4AC2-A87A-A5D96BA3F3E5}" name="Column79"/>
+    <tableColumn id="80" xr3:uid="{14C6A169-5281-4454-9ACC-ADE81E512E3D}" name="Column80"/>
+    <tableColumn id="81" xr3:uid="{7A8FC97B-9F5F-43F4-B6A0-AE7A6971A400}" name="Column81"/>
+    <tableColumn id="82" xr3:uid="{03C6A642-DDA6-45BF-B48F-71ADE3672CD0}" name="Column82"/>
+    <tableColumn id="83" xr3:uid="{5B5F4A0E-C743-44D3-A05A-E3B564F1DDD8}" name="Column83"/>
+    <tableColumn id="84" xr3:uid="{D052C303-0253-432B-A7AB-649C17D3F90F}" name="Column84"/>
+    <tableColumn id="85" xr3:uid="{14CF6DA1-11B8-48B2-9C64-E85EA3D77166}" name="Column85"/>
+    <tableColumn id="86" xr3:uid="{E4B36075-C52C-4E68-A6CA-557AFA5C9F8F}" name="Column86"/>
+    <tableColumn id="87" xr3:uid="{84A52FB7-C91A-45D6-A468-8EAD98C08EBF}" name="Column87"/>
+    <tableColumn id="88" xr3:uid="{0FE98D7F-3CB5-4A19-91CC-13FF16530659}" name="Column88"/>
+    <tableColumn id="89" xr3:uid="{70378FEA-74C8-4C38-A281-AEBB891BBF48}" name="Column89"/>
+    <tableColumn id="90" xr3:uid="{BEA672D7-75A1-420F-908E-E428B5B27A86}" name="Column90"/>
+    <tableColumn id="91" xr3:uid="{DEB5F84E-7CA7-447E-9CD1-880DCFEF95C7}" name="Column91"/>
+    <tableColumn id="92" xr3:uid="{99B9024C-BEF3-4378-8840-E891ECE9E4E1}" name="Column92"/>
+    <tableColumn id="93" xr3:uid="{D0614BC3-335E-425B-B637-F99FB4598FCE}" name="Column93"/>
+    <tableColumn id="94" xr3:uid="{DCE5F46D-7CA2-4487-8761-63FE40CAA0EE}" name="Column94"/>
+    <tableColumn id="95" xr3:uid="{0747AC97-3280-437D-AEDD-219BB4681376}" name="Column95"/>
+    <tableColumn id="96" xr3:uid="{DECC2ECF-CF97-42FC-9C44-6A640B8A70D3}" name="Column96"/>
+    <tableColumn id="97" xr3:uid="{3E4CBD02-A8CF-4DB2-80C0-04FD9AFEDFB0}" name="Column97"/>
+    <tableColumn id="98" xr3:uid="{FBD0469B-59AA-4603-AA0A-EC6968420941}" name="Column98"/>
+    <tableColumn id="99" xr3:uid="{629CA198-64BF-41B9-95F7-12382C67F6A1}" name="Column99"/>
+    <tableColumn id="100" xr3:uid="{2E015410-6009-48F7-B86A-BD8B39D815E3}" name="Column100"/>
+    <tableColumn id="101" xr3:uid="{923F6746-B441-421A-83A4-880D43CF7A85}" name="Column101"/>
+    <tableColumn id="102" xr3:uid="{6351613C-687F-44EF-B6C1-5968057240C1}" name="Column102"/>
+    <tableColumn id="103" xr3:uid="{1A0100BC-89BE-479C-A52F-C3E60DF85D21}" name="Column103"/>
+    <tableColumn id="104" xr3:uid="{9FEEC463-266C-4D97-B5DC-15BB73738291}" name="Column104"/>
+    <tableColumn id="105" xr3:uid="{381572FE-9AB1-4FBA-9CCB-C330E0695089}" name="Column105"/>
+    <tableColumn id="106" xr3:uid="{5D0ABA2F-D4AA-4684-A04A-543E353D30FD}" name="Column106"/>
+    <tableColumn id="107" xr3:uid="{4E2317E5-8C2F-4437-8A5A-B0C30DBDB6E9}" name="Column107"/>
+    <tableColumn id="108" xr3:uid="{6AC799CA-4B5E-45E7-8435-86CAF39C19EB}" name="Column108"/>
+    <tableColumn id="109" xr3:uid="{7255F076-D6E5-4551-8A97-D8F607FF902F}" name="Column109"/>
+    <tableColumn id="110" xr3:uid="{051B8949-3143-41A4-9C65-85B2580EBE0D}" name="Column110"/>
+    <tableColumn id="111" xr3:uid="{E7235C06-BACD-4D18-BCB4-5625C58D1B49}" name="Column111"/>
+    <tableColumn id="112" xr3:uid="{08324020-980D-4086-9EBE-0DC6BD34C5FB}" name="Column112"/>
+    <tableColumn id="113" xr3:uid="{6D232784-746D-4FD7-881E-AA377DCC6D60}" name="Column113"/>
+    <tableColumn id="114" xr3:uid="{FA9F50A8-FA3B-44FB-8B17-FAD38F6A2DE2}" name="Column114"/>
+    <tableColumn id="115" xr3:uid="{3B622354-7610-4092-8315-C176F23D0814}" name="Column115"/>
+    <tableColumn id="116" xr3:uid="{AF3E00A7-441A-405D-B9F0-622F5A98A3F0}" name="Column116"/>
+    <tableColumn id="117" xr3:uid="{C8CA80B4-34CF-4CF7-9974-57860097ABC3}" name="Column117"/>
+    <tableColumn id="118" xr3:uid="{BCCAB14B-E116-4C45-B5FC-81D0B4057C20}" name="Column118"/>
+    <tableColumn id="119" xr3:uid="{E5A4573A-46E6-4290-944C-9CFDA6C67BC5}" name="Column119"/>
+    <tableColumn id="120" xr3:uid="{C1F2E4BE-9649-49B0-B36B-8DCA243E0D30}" name="Column120"/>
+    <tableColumn id="121" xr3:uid="{BC75CE0C-1F45-47BE-91F5-43E7B703D033}" name="Column121"/>
+    <tableColumn id="122" xr3:uid="{FA4151AB-6E24-4467-A85C-881960B42696}" name="Column122"/>
+    <tableColumn id="123" xr3:uid="{07FE95AA-E75A-49AC-805A-0287BB68DA0E}" name="Column123"/>
+    <tableColumn id="124" xr3:uid="{6A663E57-A8ED-40B3-A85D-8C84B0292D36}" name="Column124"/>
+    <tableColumn id="125" xr3:uid="{D2415A8E-6C03-41F7-88E9-2D5A8295A020}" name="Column125"/>
+    <tableColumn id="126" xr3:uid="{DF2ACA47-871B-4027-8BC5-4F4686B021F1}" name="Column126"/>
+    <tableColumn id="127" xr3:uid="{0D667946-23B8-4DC8-9F4A-6F452E61F720}" name="Column127"/>
+    <tableColumn id="128" xr3:uid="{8F193719-7750-458C-9BA0-26215CE4C1F8}" name="Column128"/>
+    <tableColumn id="129" xr3:uid="{F76BB1CF-3B00-463F-8341-0F1C1438F7BB}" name="Column129"/>
+    <tableColumn id="130" xr3:uid="{076CFB04-C5DE-4D04-AAE0-2212B1BE9639}" name="Column130"/>
+    <tableColumn id="131" xr3:uid="{2CFB34AA-E039-49DB-BC87-4FA807381B22}" name="Column131"/>
+    <tableColumn id="132" xr3:uid="{4EEC31D3-3F44-402E-9046-AB03D5DBA0F8}" name="Column132"/>
+    <tableColumn id="133" xr3:uid="{FB0C1CCB-2AD5-469F-B5EE-6817D64D23F6}" name="Column133"/>
+    <tableColumn id="134" xr3:uid="{DE2A1FA0-7214-4C02-B35F-9E2AD7D3EC4B}" name="Column134"/>
+    <tableColumn id="135" xr3:uid="{22389D44-3F38-46BA-9B09-07D3C5206EBC}" name="Column135"/>
+    <tableColumn id="136" xr3:uid="{66CA8B93-A199-43DF-9D28-295A8734CB46}" name="Column136"/>
+    <tableColumn id="137" xr3:uid="{E3E95DF6-04A9-4088-9ED9-8D544574B46F}" name="Column137"/>
+    <tableColumn id="138" xr3:uid="{EACA7642-A95F-40E7-8E69-E22BE4050E21}" name="Column138"/>
+    <tableColumn id="139" xr3:uid="{B3DD5803-31D1-40B8-B248-C4EB78FE9E19}" name="Column139"/>
+    <tableColumn id="140" xr3:uid="{11464670-CE30-4F80-8F9E-C1C2E71BF682}" name="Column140"/>
+    <tableColumn id="141" xr3:uid="{04B048EB-8BFA-4265-8E18-791653CC6E29}" name="Column141"/>
+    <tableColumn id="142" xr3:uid="{B74C9196-7DA2-46D8-BFF7-DC5D8270AF22}" name="Column142"/>
+    <tableColumn id="143" xr3:uid="{C9D5E052-8634-49EC-BE57-FF34E0941374}" name="Column143"/>
+    <tableColumn id="144" xr3:uid="{238B520A-0606-4F59-87AB-953E90A21FEA}" name="Column144"/>
+    <tableColumn id="145" xr3:uid="{06204AE7-F793-4C89-8CA3-FA4234AFDDC1}" name="Column145"/>
+    <tableColumn id="146" xr3:uid="{F631DF90-E169-4B20-A4BA-F6DE2B64E0B6}" name="Column146"/>
+    <tableColumn id="147" xr3:uid="{7793C815-45F4-4CAF-AD7A-2D15A1671333}" name="Column147"/>
+    <tableColumn id="148" xr3:uid="{6AD27265-DF86-4E55-BE09-1625347F52A2}" name="Column148"/>
+    <tableColumn id="149" xr3:uid="{7C361D7F-3139-49A5-BCDB-9B898424CC33}" name="Column149"/>
+    <tableColumn id="150" xr3:uid="{9A238A61-4D28-404C-AB87-306B1EEB6ACB}" name="Column150"/>
+    <tableColumn id="151" xr3:uid="{F0E1186B-3AB7-4CBD-B60F-B0DF3483CED4}" name="Column151"/>
+    <tableColumn id="152" xr3:uid="{3FEEFF46-948C-4126-8F1A-51507A113768}" name="Column152"/>
+    <tableColumn id="153" xr3:uid="{8ABE8B7E-1501-4E08-BC2B-11ACDC69B782}" name="Column153"/>
+    <tableColumn id="154" xr3:uid="{547211A6-C71B-4C79-A010-F33CADAD916C}" name="Column154"/>
+    <tableColumn id="155" xr3:uid="{4A807F02-7F1E-4F6B-AAA5-CD58461D3344}" name="Column155"/>
+    <tableColumn id="156" xr3:uid="{37796EDF-ACC9-4B74-8922-A83014B2CFC6}" name="Column156"/>
+    <tableColumn id="157" xr3:uid="{CD9A7B32-F7F1-48E8-9007-D88AD2D527A3}" name="Column157"/>
+    <tableColumn id="158" xr3:uid="{E5022B2E-6DD2-4B1B-B2A0-B56D2E18755E}" name="Column158"/>
+    <tableColumn id="159" xr3:uid="{AA7B9FF1-860C-4A6A-80C6-513FC9EE7E0B}" name="Column159"/>
+    <tableColumn id="160" xr3:uid="{462F3D6A-858C-4FA0-B3CF-8DD5EC5AC48B}" name="Column160"/>
+    <tableColumn id="161" xr3:uid="{A766E656-0DF3-4D7E-A83B-869E19821FB6}" name="Column161"/>
+    <tableColumn id="162" xr3:uid="{CFC9D32D-8CBD-4941-8709-FA4C915D2339}" name="Column162"/>
+    <tableColumn id="163" xr3:uid="{F75671FE-0A81-4352-A338-AEF930E94A66}" name="Column163"/>
+    <tableColumn id="164" xr3:uid="{DC6EA19B-77C5-413A-BF84-ACAD489903EB}" name="Column164"/>
+    <tableColumn id="165" xr3:uid="{87465C4E-382C-45B0-B3A9-86D4288B328E}" name="Column165"/>
+    <tableColumn id="166" xr3:uid="{56CBE314-5BCE-434B-9236-B38653D8C939}" name="Column166"/>
+    <tableColumn id="167" xr3:uid="{B5AD41D8-4941-416F-97A7-5305A18849F1}" name="Column167"/>
+    <tableColumn id="168" xr3:uid="{088C0602-68C8-4F4F-A2A5-623BA99E7BAA}" name="Column168"/>
+    <tableColumn id="169" xr3:uid="{5E91A8A3-DC87-42A9-9E9F-B5C3B7139F18}" name="Column169"/>
+    <tableColumn id="170" xr3:uid="{2E12CD3A-F187-4569-A6DD-15F5A317B5FC}" name="Column170"/>
+    <tableColumn id="171" xr3:uid="{79BB57A9-22C5-497C-9476-083D96CC1FD0}" name="Column171"/>
+    <tableColumn id="172" xr3:uid="{4E1BF58E-9E03-49CA-86DD-ADDBA1186F61}" name="Column172"/>
+    <tableColumn id="173" xr3:uid="{506DA3C3-9FD5-47CE-9E74-DB123DE5F39A}" name="Column173"/>
+    <tableColumn id="174" xr3:uid="{DA37EA9F-AE78-480A-9156-CF94F3B6560B}" name="Column174"/>
+    <tableColumn id="175" xr3:uid="{1C91EE9B-0709-44A7-B48B-4DAA1F37D782}" name="Column175"/>
+    <tableColumn id="176" xr3:uid="{40AB900B-5441-46EA-B8F6-ED762E717828}" name="Column176"/>
+    <tableColumn id="177" xr3:uid="{1E418C2E-5D62-438C-9698-38DF7B244D32}" name="Column177"/>
+    <tableColumn id="178" xr3:uid="{4DBAE092-528D-4909-B146-1CB95DA3585B}" name="Column178"/>
+    <tableColumn id="179" xr3:uid="{928C93CD-35A4-440F-8210-450B430E09A8}" name="Column179"/>
+    <tableColumn id="180" xr3:uid="{14646694-01E0-4E2F-8C4C-FA092B2B147C}" name="Column180"/>
+    <tableColumn id="181" xr3:uid="{66FF3997-49E2-40FB-B4F8-CE7DFC293A8C}" name="Column181"/>
+    <tableColumn id="182" xr3:uid="{0750B56F-A964-4754-A14C-C47CC0A91B2C}" name="Column182"/>
+    <tableColumn id="183" xr3:uid="{46AFDDB3-98CE-4389-8A15-C3E8DFFD3C86}" name="Column183"/>
+    <tableColumn id="184" xr3:uid="{41AF281D-CD78-4B2C-AAB8-5777D1C413B1}" name="Column184"/>
+    <tableColumn id="185" xr3:uid="{5EE6395F-6FE4-4260-9E52-A84BE72788FC}" name="Column185"/>
+    <tableColumn id="186" xr3:uid="{B33CC8B3-E38C-4663-B51C-CAF6902C921A}" name="Column186"/>
+    <tableColumn id="187" xr3:uid="{CFEE5F99-DF9D-4933-89F1-B9F832315610}" name="Column187"/>
+    <tableColumn id="188" xr3:uid="{C21F2FE1-6694-4CF5-BE9E-51A0575E0F7C}" name="Column188"/>
+    <tableColumn id="189" xr3:uid="{1226A431-B804-41B4-845E-BE2618CBF8C7}" name="Column189"/>
+    <tableColumn id="190" xr3:uid="{4FFC0E60-0355-42E3-8571-B94054988BFC}" name="Column190"/>
+    <tableColumn id="191" xr3:uid="{AA0D5B09-E60B-4847-8527-AC560CCBE528}" name="Column191"/>
+    <tableColumn id="192" xr3:uid="{8ADD8843-4488-41E9-81F0-EC46DC76B3A6}" name="Column192"/>
+    <tableColumn id="193" xr3:uid="{BC7182A8-2773-4184-9D61-9BBBEC549DF8}" name="Column193"/>
+    <tableColumn id="194" xr3:uid="{D4E866EC-A625-45AD-8B83-7A7CEE67E746}" name="Column194"/>
+    <tableColumn id="195" xr3:uid="{4C1F610B-4E3D-465D-B45F-CD9BC5DB3DC8}" name="Column195"/>
+    <tableColumn id="196" xr3:uid="{184F785C-2E60-45D1-9CC7-223B1C6E9308}" name="Column196"/>
+    <tableColumn id="197" xr3:uid="{74C8B5A4-D707-43D7-A73D-1B5AA740B6BA}" name="Column197"/>
+    <tableColumn id="198" xr3:uid="{B958A547-03A3-4513-BD89-92DC99AA79B9}" name="Column198"/>
+    <tableColumn id="199" xr3:uid="{5AB2F05E-E601-4204-A9B4-AD5FA8229F6F}" name="Column199"/>
+    <tableColumn id="200" xr3:uid="{ACE260AE-DFA8-4FBB-8484-1B25620187CA}" name="Column200"/>
+    <tableColumn id="201" xr3:uid="{39442D06-7F77-413B-97B6-2BB1C091569B}" name="Column201"/>
+    <tableColumn id="202" xr3:uid="{1B22573D-A74D-483A-ACEC-13C42DBE603E}" name="Column202"/>
+    <tableColumn id="203" xr3:uid="{63500510-BB6E-49CC-B7A0-6A646AC2670F}" name="Column203"/>
+    <tableColumn id="204" xr3:uid="{41C84692-FFA3-4F63-86E8-07768DFF5484}" name="Column204"/>
+    <tableColumn id="205" xr3:uid="{57DD6320-F15B-4C94-99F2-31E1FC06007B}" name="Column205"/>
+    <tableColumn id="206" xr3:uid="{399E659E-ABE3-4E87-B93C-9F158A940559}" name="Column206"/>
+    <tableColumn id="207" xr3:uid="{E101AC6E-BBEC-4320-B346-253B606E4685}" name="Column207"/>
+    <tableColumn id="208" xr3:uid="{B33EE851-BC3A-4389-8716-3F54CE843BB9}" name="Column208"/>
+    <tableColumn id="209" xr3:uid="{2538C6E5-B65F-4389-B6E2-9CA81020841D}" name="Column209"/>
+    <tableColumn id="210" xr3:uid="{60CC72EE-4CFC-4381-9C72-EAA55AFF7BD0}" name="Column210"/>
+    <tableColumn id="211" xr3:uid="{F52B8538-B515-4A27-B267-EBBCA94DEAB3}" name="Column211"/>
+    <tableColumn id="212" xr3:uid="{93C7B025-796B-4627-9AC2-00A711FC2BF6}" name="Column212"/>
+    <tableColumn id="213" xr3:uid="{D32E701A-7842-46A1-9D66-5025490AE6B1}" name="Column213"/>
+    <tableColumn id="214" xr3:uid="{8A00BA3C-4E41-4EBF-ADF7-AF295211540B}" name="Column214"/>
+    <tableColumn id="215" xr3:uid="{19F25464-7559-4C31-AD4D-A122E4828B5A}" name="Column215"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,1306 +1764,1996 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HG2"/>
+  <dimension ref="A1:HG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CM1" zoomScale="58" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CY11" sqref="CY11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="27" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="19" width="21.44140625" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" customWidth="1"/>
+    <col min="21" max="29" width="21.44140625" customWidth="1"/>
+    <col min="30" max="30" width="20.6640625" customWidth="1"/>
+    <col min="31" max="39" width="21.44140625" customWidth="1"/>
+    <col min="40" max="40" width="20.6640625" customWidth="1"/>
+    <col min="41" max="49" width="21.44140625" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" customWidth="1"/>
+    <col min="51" max="59" width="21.44140625" customWidth="1"/>
+    <col min="60" max="60" width="20.6640625" customWidth="1"/>
+    <col min="61" max="69" width="21.44140625" customWidth="1"/>
+    <col min="70" max="70" width="20.6640625" customWidth="1"/>
+    <col min="71" max="79" width="21.44140625" customWidth="1"/>
+    <col min="80" max="80" width="20.6640625" customWidth="1"/>
+    <col min="81" max="89" width="21.44140625" customWidth="1"/>
+    <col min="90" max="90" width="20.6640625" customWidth="1"/>
+    <col min="91" max="99" width="21.44140625" customWidth="1"/>
+    <col min="100" max="100" width="22.21875" customWidth="1"/>
+    <col min="101" max="110" width="23" customWidth="1"/>
+    <col min="111" max="119" width="23.77734375" customWidth="1"/>
+    <col min="120" max="120" width="23" customWidth="1"/>
+    <col min="121" max="129" width="23.77734375" customWidth="1"/>
+    <col min="130" max="130" width="23" customWidth="1"/>
+    <col min="131" max="139" width="23.77734375" customWidth="1"/>
+    <col min="140" max="140" width="23" customWidth="1"/>
+    <col min="141" max="149" width="23.77734375" customWidth="1"/>
+    <col min="150" max="150" width="23" customWidth="1"/>
+    <col min="151" max="159" width="23.77734375" customWidth="1"/>
+    <col min="160" max="160" width="23" customWidth="1"/>
+    <col min="161" max="169" width="23.77734375" customWidth="1"/>
+    <col min="170" max="170" width="23" customWidth="1"/>
+    <col min="171" max="179" width="23.77734375" customWidth="1"/>
+    <col min="180" max="180" width="23" customWidth="1"/>
+    <col min="181" max="189" width="23.77734375" customWidth="1"/>
+    <col min="190" max="190" width="23" customWidth="1"/>
+    <col min="191" max="199" width="23.77734375" customWidth="1"/>
+    <col min="200" max="200" width="22.21875" customWidth="1"/>
+    <col min="201" max="210" width="23" customWidth="1"/>
+    <col min="211" max="215" width="23.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:215" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>2813</v>
-      </c>
-      <c r="D1">
-        <v>2812</v>
-      </c>
-      <c r="E1">
-        <v>2811</v>
-      </c>
-      <c r="F1">
-        <v>2809</v>
-      </c>
-      <c r="G1">
-        <v>2808</v>
-      </c>
-      <c r="H1">
-        <v>2806</v>
-      </c>
-      <c r="I1">
-        <v>2805</v>
-      </c>
-      <c r="J1">
-        <v>2804</v>
-      </c>
-      <c r="K1">
-        <v>2802</v>
-      </c>
-      <c r="L1">
-        <v>2798</v>
-      </c>
-      <c r="M1">
-        <v>2796</v>
-      </c>
-      <c r="N1">
-        <v>2795</v>
-      </c>
-      <c r="O1">
-        <v>2792</v>
-      </c>
-      <c r="P1">
-        <v>2791</v>
-      </c>
-      <c r="Q1">
-        <v>2790</v>
-      </c>
-      <c r="R1">
-        <v>2788</v>
-      </c>
-      <c r="S1">
-        <v>2787</v>
-      </c>
-      <c r="T1">
-        <v>2784</v>
-      </c>
-      <c r="U1">
-        <v>2783</v>
-      </c>
-      <c r="V1">
-        <v>2776</v>
-      </c>
-      <c r="W1">
-        <v>2774</v>
-      </c>
-      <c r="X1">
-        <v>2262</v>
-      </c>
-      <c r="Y1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>131</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>148</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>150</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GP1" t="s">
         <v>199</v>
       </c>
-      <c r="Z1">
-        <v>1486</v>
-      </c>
-      <c r="AA1">
-        <v>1300</v>
-      </c>
-      <c r="AB1">
-        <v>1502</v>
-      </c>
-      <c r="AC1">
-        <v>2551</v>
-      </c>
-      <c r="AD1">
-        <v>1989</v>
-      </c>
-      <c r="AE1">
-        <v>657</v>
-      </c>
-      <c r="AF1">
-        <v>2040</v>
-      </c>
-      <c r="AG1">
-        <v>1686</v>
-      </c>
-      <c r="AH1">
-        <v>421</v>
-      </c>
-      <c r="AI1">
-        <v>2643</v>
-      </c>
-      <c r="AJ1">
-        <v>1515</v>
-      </c>
-      <c r="AK1">
-        <v>373</v>
-      </c>
-      <c r="AL1">
-        <v>1163</v>
-      </c>
-      <c r="AM1">
-        <v>409</v>
-      </c>
-      <c r="AN1">
-        <v>37</v>
-      </c>
-      <c r="AO1">
-        <v>515</v>
-      </c>
-      <c r="AP1">
-        <v>399</v>
-      </c>
-      <c r="AQ1">
-        <v>489</v>
-      </c>
-      <c r="AR1">
-        <v>2594</v>
-      </c>
-      <c r="AS1">
-        <v>1225</v>
-      </c>
-      <c r="AT1">
-        <v>2437</v>
-      </c>
-      <c r="AU1">
-        <v>2082</v>
-      </c>
-      <c r="AV1">
-        <v>74</v>
-      </c>
-      <c r="AW1">
-        <v>22</v>
-      </c>
-      <c r="AX1">
-        <v>1701</v>
-      </c>
-      <c r="AY1">
-        <v>993</v>
-      </c>
-      <c r="AZ1">
-        <v>1805</v>
-      </c>
-      <c r="BA1">
-        <v>1084</v>
-      </c>
-      <c r="BB1">
-        <v>2287</v>
-      </c>
-      <c r="BC1">
-        <v>906</v>
-      </c>
-      <c r="BD1">
-        <v>403</v>
-      </c>
-      <c r="BE1">
-        <v>1847</v>
-      </c>
-      <c r="BF1">
-        <v>1570</v>
-      </c>
-      <c r="BG1">
-        <v>1124</v>
-      </c>
-      <c r="BH1">
-        <v>953</v>
-      </c>
-      <c r="BI1">
-        <v>538</v>
-      </c>
-      <c r="BJ1">
-        <v>158</v>
-      </c>
-      <c r="BK1">
-        <v>744</v>
-      </c>
-      <c r="BL1">
-        <v>277</v>
-      </c>
-      <c r="BM1">
-        <v>2772</v>
-      </c>
-      <c r="BN1">
-        <v>902</v>
-      </c>
-      <c r="BO1">
-        <v>2309</v>
-      </c>
-      <c r="BP1">
-        <v>2793</v>
-      </c>
-      <c r="BQ1">
-        <v>1858</v>
-      </c>
-      <c r="BR1">
-        <v>1783</v>
-      </c>
-      <c r="BS1">
-        <v>951</v>
-      </c>
-      <c r="BT1">
-        <v>934</v>
-      </c>
-      <c r="BU1">
-        <v>266</v>
-      </c>
-      <c r="BV1">
-        <v>18</v>
-      </c>
-      <c r="BW1">
-        <v>1257</v>
-      </c>
-      <c r="BX1">
-        <v>1062</v>
-      </c>
-      <c r="BY1">
-        <v>861</v>
-      </c>
-      <c r="BZ1">
-        <v>2932</v>
-      </c>
-      <c r="CA1">
-        <v>2794</v>
-      </c>
-      <c r="CB1">
-        <v>947</v>
-      </c>
-      <c r="CC1">
-        <v>650</v>
-      </c>
-      <c r="CD1">
-        <v>284</v>
-      </c>
-      <c r="CE1">
-        <v>988</v>
-      </c>
-      <c r="CF1">
-        <v>1571</v>
-      </c>
-      <c r="CG1">
-        <v>2696</v>
-      </c>
-      <c r="CH1">
-        <v>801</v>
-      </c>
-      <c r="CI1">
-        <v>2937</v>
-      </c>
-      <c r="CJ1">
-        <v>1997</v>
-      </c>
-      <c r="CK1">
-        <v>298</v>
-      </c>
-      <c r="CL1">
-        <v>309</v>
-      </c>
-      <c r="CM1">
-        <v>1966</v>
-      </c>
-      <c r="CN1">
-        <v>427</v>
-      </c>
-      <c r="CO1">
-        <v>2803</v>
-      </c>
-      <c r="CP1">
-        <v>1979</v>
-      </c>
-      <c r="CQ1">
-        <v>838</v>
-      </c>
-      <c r="CR1">
-        <v>334</v>
-      </c>
-      <c r="CS1">
-        <v>619</v>
-      </c>
-      <c r="CT1">
-        <v>237</v>
-      </c>
-      <c r="CU1">
-        <v>1726</v>
-      </c>
-      <c r="CV1">
-        <v>1090</v>
-      </c>
-      <c r="CW1">
-        <v>2915</v>
-      </c>
-      <c r="CX1">
-        <v>2829</v>
-      </c>
-      <c r="CY1">
-        <v>2582</v>
-      </c>
-      <c r="CZ1">
-        <v>2424</v>
-      </c>
-      <c r="DA1">
-        <v>2409</v>
-      </c>
-      <c r="DB1">
-        <v>2274</v>
-      </c>
-      <c r="DC1">
-        <v>2235</v>
-      </c>
-      <c r="DD1">
-        <v>1627</v>
-      </c>
-      <c r="DE1">
-        <v>1285</v>
-      </c>
-      <c r="DF1">
-        <v>1185</v>
-      </c>
-      <c r="DG1">
-        <v>593</v>
-      </c>
-      <c r="DH1">
-        <v>577</v>
-      </c>
-      <c r="DI1">
-        <v>561</v>
-      </c>
-      <c r="DJ1">
-        <v>532</v>
-      </c>
-      <c r="DK1">
-        <v>465</v>
-      </c>
-      <c r="DL1">
-        <v>257</v>
-      </c>
-      <c r="DM1">
-        <v>2799</v>
-      </c>
-      <c r="DN1">
-        <v>3374</v>
-      </c>
-      <c r="DO1">
-        <v>472</v>
-      </c>
-      <c r="DP1">
-        <v>252</v>
-      </c>
-      <c r="DQ1">
-        <v>926</v>
-      </c>
-      <c r="DR1">
-        <v>461</v>
-      </c>
-      <c r="DS1">
-        <v>2797</v>
-      </c>
-      <c r="DT1">
-        <v>17</v>
-      </c>
-      <c r="DU1">
-        <v>2402</v>
-      </c>
-      <c r="DV1">
-        <v>835</v>
-      </c>
-      <c r="DW1">
-        <v>495</v>
-      </c>
-      <c r="DX1">
-        <v>365</v>
-      </c>
-      <c r="DY1">
-        <v>359</v>
-      </c>
-      <c r="DZ1">
-        <v>1896</v>
-      </c>
-      <c r="EA1">
-        <v>2038</v>
-      </c>
-      <c r="EB1">
-        <v>1949</v>
-      </c>
-      <c r="EC1">
-        <v>1764</v>
-      </c>
-      <c r="ED1">
-        <v>924</v>
-      </c>
-      <c r="EE1">
-        <v>607</v>
-      </c>
-      <c r="EF1">
-        <v>576</v>
-      </c>
-      <c r="EG1">
-        <v>424</v>
-      </c>
-      <c r="EH1">
-        <v>3229</v>
-      </c>
-      <c r="EI1">
-        <v>868</v>
-      </c>
-      <c r="EJ1">
-        <v>1205</v>
-      </c>
-      <c r="EK1">
-        <v>833</v>
-      </c>
-      <c r="EL1">
-        <v>123</v>
-      </c>
-      <c r="EM1">
-        <v>3276</v>
-      </c>
-      <c r="EN1">
-        <v>822</v>
-      </c>
-      <c r="EO1">
-        <v>2665</v>
-      </c>
-      <c r="EP1">
-        <v>2371</v>
-      </c>
-      <c r="EQ1">
-        <v>2152</v>
-      </c>
-      <c r="ER1">
-        <v>2137</v>
-      </c>
-      <c r="ES1">
-        <v>2035</v>
-      </c>
-      <c r="ET1">
-        <v>1924</v>
-      </c>
-      <c r="EU1">
-        <v>1766</v>
-      </c>
-      <c r="EV1">
-        <v>1484</v>
-      </c>
-      <c r="EW1">
-        <v>1028</v>
-      </c>
-      <c r="EX1">
-        <v>962</v>
-      </c>
-      <c r="EY1">
-        <v>642</v>
-      </c>
-      <c r="EZ1">
-        <v>524</v>
-      </c>
-      <c r="FA1">
-        <v>498</v>
-      </c>
-      <c r="FB1">
-        <v>492</v>
-      </c>
-      <c r="FC1">
-        <v>394</v>
-      </c>
-      <c r="FD1">
-        <v>1694</v>
-      </c>
-      <c r="FE1">
-        <v>2014</v>
-      </c>
-      <c r="FF1">
-        <v>1845</v>
-      </c>
-      <c r="FG1">
-        <v>1612</v>
-      </c>
-      <c r="FH1">
-        <v>966</v>
-      </c>
-      <c r="FI1">
-        <v>1503</v>
-      </c>
-      <c r="FJ1">
-        <v>865</v>
-      </c>
-      <c r="FK1">
-        <v>718</v>
-      </c>
-      <c r="FL1">
-        <v>3143</v>
-      </c>
-      <c r="FM1">
-        <v>1372</v>
-      </c>
-      <c r="FN1">
-        <v>2901</v>
-      </c>
-      <c r="FO1">
-        <v>2781</v>
-      </c>
-      <c r="FP1">
-        <v>90</v>
-      </c>
-      <c r="FQ1">
-        <v>2593</v>
-      </c>
-      <c r="FR1">
-        <v>2345</v>
-      </c>
-      <c r="FS1">
-        <v>622</v>
-      </c>
-      <c r="FT1">
-        <v>2465</v>
-      </c>
-      <c r="FU1">
-        <v>1660</v>
-      </c>
-      <c r="FV1">
-        <v>1411</v>
-      </c>
-      <c r="FW1">
-        <v>770</v>
-      </c>
-      <c r="FX1">
-        <v>283</v>
-      </c>
-      <c r="FY1">
-        <v>2885</v>
-      </c>
-      <c r="FZ1">
-        <v>2684</v>
-      </c>
-      <c r="GA1">
-        <v>1550</v>
-      </c>
-      <c r="GB1">
-        <v>143</v>
-      </c>
-      <c r="GC1">
-        <v>3376</v>
-      </c>
-      <c r="GD1">
-        <v>2853</v>
-      </c>
-      <c r="GE1">
-        <v>2497</v>
-      </c>
-      <c r="GF1">
-        <v>2476</v>
-      </c>
-      <c r="GG1">
-        <v>2407</v>
-      </c>
-      <c r="GH1">
-        <v>2363</v>
-      </c>
-      <c r="GI1">
-        <v>2043</v>
-      </c>
-      <c r="GJ1">
-        <v>2006</v>
-      </c>
-      <c r="GK1">
-        <v>1996</v>
-      </c>
-      <c r="GL1">
-        <v>1970</v>
-      </c>
-      <c r="GM1">
-        <v>1961</v>
-      </c>
-      <c r="GN1">
-        <v>1911</v>
-      </c>
-      <c r="GO1">
-        <v>1669</v>
-      </c>
-      <c r="GP1">
-        <v>1558</v>
-      </c>
-      <c r="GQ1">
-        <v>1535</v>
-      </c>
-      <c r="GR1">
-        <v>1530</v>
-      </c>
-      <c r="GS1">
-        <v>1467</v>
-      </c>
-      <c r="GT1">
-        <v>1270</v>
-      </c>
-      <c r="GU1">
-        <v>917</v>
-      </c>
-      <c r="GV1">
-        <v>808</v>
-      </c>
-      <c r="GW1">
-        <v>786</v>
-      </c>
-      <c r="GX1">
-        <v>682</v>
-      </c>
-      <c r="GY1">
-        <v>598</v>
-      </c>
-      <c r="GZ1">
-        <v>504</v>
-      </c>
-      <c r="HA1">
-        <v>88</v>
-      </c>
-      <c r="HB1">
-        <v>5</v>
-      </c>
-      <c r="HC1">
-        <v>1421</v>
-      </c>
-      <c r="HD1">
-        <v>1489</v>
-      </c>
-      <c r="HE1">
-        <v>551</v>
-      </c>
-      <c r="HF1">
-        <v>2083</v>
-      </c>
-      <c r="HG1">
-        <v>1745</v>
+      <c r="GQ1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:215" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>2813</v>
+      </c>
+      <c r="D2">
+        <v>2812</v>
+      </c>
+      <c r="E2">
+        <v>2811</v>
+      </c>
+      <c r="F2">
+        <v>2809</v>
+      </c>
+      <c r="G2">
+        <v>2808</v>
+      </c>
+      <c r="H2">
+        <v>2806</v>
+      </c>
+      <c r="I2">
+        <v>2805</v>
+      </c>
+      <c r="J2">
+        <v>2804</v>
+      </c>
+      <c r="K2">
+        <v>2802</v>
+      </c>
+      <c r="L2">
+        <v>2798</v>
+      </c>
+      <c r="M2">
+        <v>2796</v>
+      </c>
+      <c r="N2">
+        <v>2795</v>
+      </c>
+      <c r="O2">
+        <v>2792</v>
+      </c>
+      <c r="P2">
+        <v>2791</v>
+      </c>
+      <c r="Q2">
+        <v>2790</v>
+      </c>
+      <c r="R2">
+        <v>2788</v>
+      </c>
+      <c r="S2">
+        <v>2787</v>
+      </c>
+      <c r="T2">
+        <v>2784</v>
+      </c>
+      <c r="U2">
+        <v>2783</v>
+      </c>
+      <c r="V2">
+        <v>2776</v>
+      </c>
+      <c r="W2">
+        <v>2774</v>
+      </c>
+      <c r="X2">
+        <v>2262</v>
+      </c>
+      <c r="Y2">
+        <v>199</v>
+      </c>
+      <c r="Z2">
+        <v>1486</v>
+      </c>
+      <c r="AA2">
+        <v>1300</v>
+      </c>
+      <c r="AB2">
+        <v>1502</v>
+      </c>
+      <c r="AC2">
+        <v>2551</v>
+      </c>
+      <c r="AD2">
+        <v>1989</v>
+      </c>
+      <c r="AE2">
+        <v>657</v>
+      </c>
+      <c r="AF2">
+        <v>2040</v>
+      </c>
+      <c r="AG2">
+        <v>1686</v>
+      </c>
+      <c r="AH2">
+        <v>421</v>
+      </c>
+      <c r="AI2">
+        <v>2643</v>
+      </c>
+      <c r="AJ2">
+        <v>1515</v>
+      </c>
+      <c r="AK2">
+        <v>373</v>
+      </c>
+      <c r="AL2">
+        <v>1163</v>
+      </c>
+      <c r="AM2">
+        <v>409</v>
+      </c>
+      <c r="AN2">
+        <v>37</v>
+      </c>
+      <c r="AO2">
+        <v>515</v>
+      </c>
+      <c r="AP2">
+        <v>399</v>
+      </c>
+      <c r="AQ2">
+        <v>489</v>
+      </c>
+      <c r="AR2">
+        <v>2594</v>
+      </c>
+      <c r="AS2">
+        <v>1225</v>
+      </c>
+      <c r="AT2">
+        <v>2437</v>
+      </c>
+      <c r="AU2">
+        <v>2082</v>
+      </c>
+      <c r="AV2">
+        <v>74</v>
+      </c>
+      <c r="AW2">
+        <v>22</v>
+      </c>
+      <c r="AX2">
+        <v>1701</v>
+      </c>
+      <c r="AY2">
+        <v>993</v>
+      </c>
+      <c r="AZ2">
+        <v>1805</v>
+      </c>
+      <c r="BA2">
+        <v>1084</v>
+      </c>
+      <c r="BB2">
+        <v>2287</v>
+      </c>
+      <c r="BC2">
+        <v>906</v>
+      </c>
+      <c r="BD2">
+        <v>403</v>
+      </c>
+      <c r="BE2">
+        <v>1847</v>
+      </c>
+      <c r="BF2">
+        <v>1570</v>
+      </c>
+      <c r="BG2">
+        <v>1124</v>
+      </c>
+      <c r="BH2">
+        <v>953</v>
+      </c>
+      <c r="BI2">
+        <v>538</v>
+      </c>
+      <c r="BJ2">
+        <v>158</v>
+      </c>
+      <c r="BK2">
+        <v>744</v>
+      </c>
+      <c r="BL2">
+        <v>277</v>
+      </c>
+      <c r="BM2">
+        <v>2772</v>
+      </c>
+      <c r="BN2">
+        <v>902</v>
+      </c>
+      <c r="BO2">
+        <v>2309</v>
+      </c>
+      <c r="BP2">
+        <v>2793</v>
+      </c>
+      <c r="BQ2">
+        <v>1858</v>
+      </c>
+      <c r="BR2">
+        <v>1783</v>
+      </c>
+      <c r="BS2">
+        <v>951</v>
+      </c>
+      <c r="BT2">
+        <v>934</v>
+      </c>
+      <c r="BU2">
+        <v>266</v>
+      </c>
+      <c r="BV2">
+        <v>18</v>
+      </c>
+      <c r="BW2">
+        <v>1257</v>
+      </c>
+      <c r="BX2">
+        <v>1062</v>
+      </c>
+      <c r="BY2">
+        <v>861</v>
+      </c>
+      <c r="BZ2">
+        <v>2932</v>
+      </c>
+      <c r="CA2">
+        <v>2794</v>
+      </c>
+      <c r="CB2">
+        <v>947</v>
+      </c>
+      <c r="CC2">
+        <v>650</v>
+      </c>
+      <c r="CD2">
+        <v>284</v>
+      </c>
+      <c r="CE2">
+        <v>988</v>
+      </c>
+      <c r="CF2">
+        <v>1571</v>
+      </c>
+      <c r="CG2">
+        <v>2696</v>
+      </c>
+      <c r="CH2">
+        <v>801</v>
+      </c>
+      <c r="CI2">
+        <v>2937</v>
+      </c>
+      <c r="CJ2">
+        <v>1997</v>
+      </c>
+      <c r="CK2">
+        <v>298</v>
+      </c>
+      <c r="CL2">
+        <v>309</v>
+      </c>
+      <c r="CM2">
+        <v>1966</v>
+      </c>
+      <c r="CN2">
+        <v>427</v>
+      </c>
+      <c r="CO2">
+        <v>2803</v>
+      </c>
+      <c r="CP2">
+        <v>1979</v>
+      </c>
+      <c r="CQ2">
+        <v>838</v>
+      </c>
+      <c r="CR2">
+        <v>334</v>
+      </c>
+      <c r="CS2">
+        <v>619</v>
+      </c>
+      <c r="CT2">
+        <v>237</v>
+      </c>
+      <c r="CU2">
+        <v>1726</v>
+      </c>
+      <c r="CV2">
+        <v>1090</v>
+      </c>
+      <c r="CW2">
+        <v>2915</v>
+      </c>
+      <c r="CX2">
+        <v>2829</v>
+      </c>
+      <c r="CY2">
+        <v>2582</v>
+      </c>
+      <c r="CZ2">
+        <v>2424</v>
+      </c>
+      <c r="DA2">
+        <v>2409</v>
+      </c>
+      <c r="DB2">
+        <v>2274</v>
+      </c>
+      <c r="DC2">
+        <v>2235</v>
+      </c>
+      <c r="DD2">
+        <v>1627</v>
+      </c>
+      <c r="DE2">
+        <v>1285</v>
+      </c>
+      <c r="DF2">
+        <v>1185</v>
+      </c>
+      <c r="DG2">
+        <v>593</v>
+      </c>
+      <c r="DH2">
+        <v>577</v>
+      </c>
+      <c r="DI2">
+        <v>561</v>
+      </c>
+      <c r="DJ2">
+        <v>532</v>
+      </c>
+      <c r="DK2">
+        <v>465</v>
+      </c>
+      <c r="DL2">
+        <v>257</v>
+      </c>
+      <c r="DM2">
+        <v>2799</v>
+      </c>
+      <c r="DN2">
+        <v>3374</v>
+      </c>
+      <c r="DO2">
+        <v>472</v>
+      </c>
+      <c r="DP2">
+        <v>252</v>
+      </c>
+      <c r="DQ2">
+        <v>926</v>
+      </c>
+      <c r="DR2">
+        <v>461</v>
+      </c>
+      <c r="DS2">
+        <v>2797</v>
+      </c>
+      <c r="DT2">
+        <v>17</v>
+      </c>
+      <c r="DU2">
+        <v>2402</v>
+      </c>
+      <c r="DV2">
+        <v>835</v>
+      </c>
+      <c r="DW2">
+        <v>495</v>
+      </c>
+      <c r="DX2">
+        <v>365</v>
+      </c>
+      <c r="DY2">
+        <v>359</v>
+      </c>
+      <c r="DZ2">
+        <v>1896</v>
+      </c>
+      <c r="EA2">
+        <v>2038</v>
+      </c>
+      <c r="EB2">
+        <v>1949</v>
+      </c>
+      <c r="EC2">
+        <v>1764</v>
+      </c>
+      <c r="ED2">
+        <v>924</v>
+      </c>
+      <c r="EE2">
+        <v>607</v>
+      </c>
+      <c r="EF2">
+        <v>576</v>
+      </c>
+      <c r="EG2">
+        <v>424</v>
+      </c>
+      <c r="EH2">
+        <v>3229</v>
+      </c>
+      <c r="EI2">
+        <v>868</v>
+      </c>
+      <c r="EJ2">
+        <v>1205</v>
+      </c>
+      <c r="EK2">
+        <v>833</v>
+      </c>
+      <c r="EL2">
+        <v>123</v>
+      </c>
+      <c r="EM2">
+        <v>3276</v>
+      </c>
+      <c r="EN2">
+        <v>822</v>
+      </c>
+      <c r="EO2">
+        <v>2665</v>
+      </c>
+      <c r="EP2">
+        <v>2371</v>
+      </c>
+      <c r="EQ2">
+        <v>2152</v>
+      </c>
+      <c r="ER2">
+        <v>2137</v>
+      </c>
+      <c r="ES2">
+        <v>2035</v>
+      </c>
+      <c r="ET2">
+        <v>1924</v>
+      </c>
+      <c r="EU2">
+        <v>1766</v>
+      </c>
+      <c r="EV2">
+        <v>1484</v>
+      </c>
+      <c r="EW2">
+        <v>1028</v>
+      </c>
+      <c r="EX2">
+        <v>962</v>
+      </c>
+      <c r="EY2">
+        <v>642</v>
+      </c>
+      <c r="EZ2">
+        <v>524</v>
+      </c>
+      <c r="FA2">
+        <v>498</v>
+      </c>
+      <c r="FB2">
+        <v>492</v>
+      </c>
+      <c r="FC2">
+        <v>394</v>
+      </c>
+      <c r="FD2">
+        <v>1694</v>
+      </c>
+      <c r="FE2">
+        <v>2014</v>
+      </c>
+      <c r="FF2">
+        <v>1845</v>
+      </c>
+      <c r="FG2">
+        <v>1612</v>
+      </c>
+      <c r="FH2">
+        <v>966</v>
+      </c>
+      <c r="FI2">
+        <v>1503</v>
+      </c>
+      <c r="FJ2">
+        <v>865</v>
+      </c>
+      <c r="FK2">
+        <v>718</v>
+      </c>
+      <c r="FL2">
+        <v>3143</v>
+      </c>
+      <c r="FM2">
+        <v>1372</v>
+      </c>
+      <c r="FN2">
+        <v>2901</v>
+      </c>
+      <c r="FO2">
+        <v>2781</v>
+      </c>
+      <c r="FP2">
+        <v>90</v>
+      </c>
+      <c r="FQ2">
+        <v>2593</v>
+      </c>
+      <c r="FR2">
+        <v>2345</v>
+      </c>
+      <c r="FS2">
+        <v>622</v>
+      </c>
+      <c r="FT2">
+        <v>2465</v>
+      </c>
+      <c r="FU2">
+        <v>1660</v>
+      </c>
+      <c r="FV2">
+        <v>1411</v>
+      </c>
+      <c r="FW2">
+        <v>770</v>
+      </c>
+      <c r="FX2">
+        <v>283</v>
+      </c>
+      <c r="FY2">
+        <v>2885</v>
+      </c>
+      <c r="FZ2">
+        <v>2684</v>
+      </c>
+      <c r="GA2">
+        <v>1550</v>
+      </c>
+      <c r="GB2">
+        <v>143</v>
+      </c>
+      <c r="GC2">
+        <v>3376</v>
+      </c>
+      <c r="GD2">
+        <v>2853</v>
+      </c>
+      <c r="GE2">
+        <v>2497</v>
+      </c>
+      <c r="GF2">
+        <v>2476</v>
+      </c>
+      <c r="GG2">
+        <v>2407</v>
+      </c>
+      <c r="GH2">
+        <v>2363</v>
+      </c>
+      <c r="GI2">
+        <v>2043</v>
+      </c>
+      <c r="GJ2">
+        <v>2006</v>
+      </c>
+      <c r="GK2">
+        <v>1996</v>
+      </c>
+      <c r="GL2">
+        <v>1970</v>
+      </c>
+      <c r="GM2">
+        <v>1961</v>
+      </c>
+      <c r="GN2">
+        <v>1911</v>
+      </c>
+      <c r="GO2">
+        <v>1669</v>
+      </c>
+      <c r="GP2">
+        <v>1558</v>
+      </c>
+      <c r="GQ2">
+        <v>1535</v>
+      </c>
+      <c r="GR2">
+        <v>1530</v>
+      </c>
+      <c r="GS2">
+        <v>1467</v>
+      </c>
+      <c r="GT2">
+        <v>1270</v>
+      </c>
+      <c r="GU2">
+        <v>917</v>
+      </c>
+      <c r="GV2">
+        <v>808</v>
+      </c>
+      <c r="GW2">
+        <v>786</v>
+      </c>
+      <c r="GX2">
+        <v>682</v>
+      </c>
+      <c r="GY2">
+        <v>598</v>
+      </c>
+      <c r="GZ2">
+        <v>504</v>
+      </c>
+      <c r="HA2">
+        <v>88</v>
+      </c>
+      <c r="HB2">
+        <v>5</v>
+      </c>
+      <c r="HC2">
+        <v>1421</v>
+      </c>
+      <c r="HD2">
+        <v>1489</v>
+      </c>
+      <c r="HE2">
+        <v>551</v>
+      </c>
+      <c r="HF2">
+        <v>2083</v>
+      </c>
+      <c r="HG2">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:215" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="Q3">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="R3">
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="U3">
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="V3">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="W3">
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="X3">
         <v>15</v>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <v>150</v>
       </c>
-      <c r="Z2">
+      <c r="Z3">
         <v>200</v>
       </c>
-      <c r="AA2">
+      <c r="AA3">
         <v>1175</v>
       </c>
-      <c r="AB2">
+      <c r="AB3">
         <v>3000</v>
       </c>
-      <c r="AC2">
+      <c r="AC3">
         <v>5000</v>
       </c>
-      <c r="AD2">
+      <c r="AD3">
         <v>20000</v>
       </c>
-      <c r="AE2">
+      <c r="AE3">
         <v>20000</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>30000</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>38119.440909999998</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>43478</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>50000</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ3">
         <v>60404.711569999999</v>
       </c>
-      <c r="AK2">
+      <c r="AK3">
         <v>75000</v>
       </c>
-      <c r="AL2">
+      <c r="AL3">
         <v>76000</v>
       </c>
-      <c r="AM2">
+      <c r="AM3">
         <v>100000</v>
       </c>
-      <c r="AN2">
+      <c r="AN3">
         <v>100000</v>
       </c>
-      <c r="AO2">
+      <c r="AO3">
         <v>152000</v>
       </c>
-      <c r="AP2">
+      <c r="AP3">
         <v>156000</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ3">
         <v>167000</v>
       </c>
-      <c r="AR2">
+      <c r="AR3">
         <v>173000</v>
       </c>
-      <c r="AS2">
+      <c r="AS3">
         <v>180000</v>
       </c>
-      <c r="AT2">
+      <c r="AT3">
         <v>200000</v>
       </c>
-      <c r="AU2">
+      <c r="AU3">
         <v>200000</v>
       </c>
-      <c r="AV2">
+      <c r="AV3">
         <v>200000</v>
       </c>
-      <c r="AW2">
+      <c r="AW3">
         <v>230000</v>
       </c>
-      <c r="AX2">
+      <c r="AX3">
         <v>236835.87270000001</v>
       </c>
-      <c r="AY2">
+      <c r="AY3">
         <v>252000</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ3">
         <v>260000</v>
       </c>
-      <c r="BA2">
+      <c r="BA3">
         <v>266000</v>
       </c>
-      <c r="BB2">
+      <c r="BB3">
         <v>270000</v>
       </c>
-      <c r="BC2">
+      <c r="BC3">
         <v>280000</v>
       </c>
-      <c r="BD2">
+      <c r="BD3">
         <v>280000</v>
       </c>
-      <c r="BE2">
+      <c r="BE3">
         <v>296800</v>
       </c>
-      <c r="BF2">
+      <c r="BF3">
         <v>300000</v>
       </c>
-      <c r="BG2">
+      <c r="BG3">
         <v>300000</v>
       </c>
-      <c r="BH2">
+      <c r="BH3">
         <v>300000</v>
       </c>
-      <c r="BI2">
+      <c r="BI3">
         <v>300000</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ3">
         <v>300000</v>
       </c>
-      <c r="BK2">
+      <c r="BK3">
         <v>310000</v>
       </c>
-      <c r="BL2">
+      <c r="BL3">
         <v>341200</v>
       </c>
-      <c r="BM2">
+      <c r="BM3">
         <v>350000</v>
       </c>
-      <c r="BN2">
+      <c r="BN3">
         <v>380000</v>
       </c>
-      <c r="BO2">
+      <c r="BO3">
         <v>383000</v>
       </c>
-      <c r="BP2">
+      <c r="BP3">
         <v>390000</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ3">
         <v>392000</v>
       </c>
-      <c r="BR2">
+      <c r="BR3">
         <v>400000</v>
       </c>
-      <c r="BS2">
+      <c r="BS3">
         <v>400000</v>
       </c>
-      <c r="BT2">
+      <c r="BT3">
         <v>400000</v>
       </c>
-      <c r="BU2">
+      <c r="BU3">
         <v>400000</v>
       </c>
-      <c r="BV2">
+      <c r="BV3">
         <v>400000</v>
       </c>
-      <c r="BW2">
+      <c r="BW3">
         <v>420000</v>
       </c>
-      <c r="BX2">
+      <c r="BX3">
         <v>430000</v>
       </c>
-      <c r="BY2">
+      <c r="BY3">
         <v>444000</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ3">
         <v>471000</v>
       </c>
-      <c r="CA2">
+      <c r="CA3">
         <v>500000</v>
       </c>
-      <c r="CB2">
+      <c r="CB3">
         <v>500000</v>
       </c>
-      <c r="CC2">
+      <c r="CC3">
         <v>500000</v>
       </c>
-      <c r="CD2">
+      <c r="CD3">
         <v>500000</v>
       </c>
-      <c r="CE2">
+      <c r="CE3">
         <v>550000</v>
       </c>
-      <c r="CF2">
+      <c r="CF3">
         <v>555000</v>
       </c>
-      <c r="CG2">
+      <c r="CG3">
         <v>560000</v>
       </c>
-      <c r="CH2">
+      <c r="CH3">
         <v>580000</v>
       </c>
-      <c r="CI2">
+      <c r="CI3">
         <v>644660</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ3">
         <v>645000</v>
       </c>
-      <c r="CK2">
+      <c r="CK3">
         <v>650000</v>
       </c>
-      <c r="CL2">
+      <c r="CL3">
         <v>670000</v>
       </c>
-      <c r="CM2">
+      <c r="CM3">
         <v>723684</v>
       </c>
-      <c r="CN2">
+      <c r="CN3">
         <v>725000</v>
       </c>
-      <c r="CO2">
+      <c r="CO3">
         <v>800000</v>
       </c>
-      <c r="CP2">
+      <c r="CP3">
         <v>800000</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ3">
         <v>855000</v>
       </c>
-      <c r="CR2">
+      <c r="CR3">
         <v>896000</v>
       </c>
-      <c r="CS2">
+      <c r="CS3">
         <v>900000</v>
       </c>
-      <c r="CT2">
+      <c r="CT3">
         <v>900000</v>
       </c>
-      <c r="CU2">
+      <c r="CU3">
         <v>965000</v>
       </c>
-      <c r="CV2">
+      <c r="CV3">
         <v>980000</v>
       </c>
-      <c r="CW2">
+      <c r="CW3">
         <v>1000000</v>
       </c>
-      <c r="CX2">
+      <c r="CX3">
         <v>1000000</v>
       </c>
-      <c r="CY2">
+      <c r="CY3">
         <v>1000000</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ3">
         <v>1000000</v>
       </c>
-      <c r="DA2">
+      <c r="DA3">
         <v>1000000</v>
       </c>
-      <c r="DB2">
+      <c r="DB3">
         <v>1000000</v>
       </c>
-      <c r="DC2">
+      <c r="DC3">
         <v>1000000</v>
       </c>
-      <c r="DD2">
+      <c r="DD3">
         <v>1000000</v>
       </c>
-      <c r="DE2">
+      <c r="DE3">
         <v>1000000</v>
       </c>
-      <c r="DF2">
+      <c r="DF3">
         <v>1000000</v>
       </c>
-      <c r="DG2">
+      <c r="DG3">
         <v>1000000</v>
       </c>
-      <c r="DH2">
+      <c r="DH3">
         <v>1000000</v>
       </c>
-      <c r="DI2">
+      <c r="DI3">
         <v>1000000</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ3">
         <v>1000000</v>
       </c>
-      <c r="DK2">
+      <c r="DK3">
         <v>1000000</v>
       </c>
-      <c r="DL2">
+      <c r="DL3">
         <v>1000000</v>
       </c>
-      <c r="DM2">
+      <c r="DM3">
         <v>1070820</v>
       </c>
-      <c r="DN2">
+      <c r="DN3">
         <v>1080000</v>
       </c>
-      <c r="DO2">
+      <c r="DO3">
         <v>1170000</v>
       </c>
-      <c r="DP2">
+      <c r="DP3">
         <v>1200000</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ3">
         <v>1210000</v>
       </c>
-      <c r="DR2">
+      <c r="DR3">
         <v>1240000</v>
       </c>
-      <c r="DS2">
+      <c r="DS3">
         <v>1300000</v>
       </c>
-      <c r="DT2">
+      <c r="DT3">
         <v>1300000</v>
       </c>
-      <c r="DU2">
+      <c r="DU3">
         <v>1400000</v>
       </c>
-      <c r="DV2">
+      <c r="DV3">
         <v>1400000</v>
       </c>
-      <c r="DW2">
+      <c r="DW3">
         <v>1400000</v>
       </c>
-      <c r="DX2">
+      <c r="DX3">
         <v>1420000</v>
       </c>
-      <c r="DY2">
+      <c r="DY3">
         <v>1440000</v>
       </c>
-      <c r="DZ2">
+      <c r="DZ3">
         <v>1450000</v>
       </c>
-      <c r="EA2">
+      <c r="EA3">
         <v>1500000</v>
       </c>
-      <c r="EB2">
+      <c r="EB3">
         <v>1500000</v>
       </c>
-      <c r="EC2">
+      <c r="EC3">
         <v>1500000</v>
       </c>
-      <c r="ED2">
+      <c r="ED3">
         <v>1500000</v>
       </c>
-      <c r="EE2">
+      <c r="EE3">
         <v>1500000</v>
       </c>
-      <c r="EF2">
+      <c r="EF3">
         <v>1500000</v>
       </c>
-      <c r="EG2">
+      <c r="EG3">
         <v>1500000</v>
       </c>
-      <c r="EH2">
+      <c r="EH3">
         <v>1510000</v>
       </c>
-      <c r="EI2">
+      <c r="EI3">
         <v>1600000</v>
       </c>
-      <c r="EJ2">
+      <c r="EJ3">
         <v>1650000</v>
       </c>
-      <c r="EK2">
+      <c r="EK3">
         <v>1700000</v>
       </c>
-      <c r="EL2">
+      <c r="EL3">
         <v>1700000</v>
       </c>
-      <c r="EM2">
+      <c r="EM3">
         <v>1900000</v>
       </c>
-      <c r="EN2">
+      <c r="EN3">
         <v>1900000</v>
       </c>
-      <c r="EO2">
+      <c r="EO3">
         <v>2000000</v>
       </c>
-      <c r="EP2">
+      <c r="EP3">
         <v>2000000</v>
       </c>
-      <c r="EQ2">
+      <c r="EQ3">
         <v>2000000</v>
       </c>
-      <c r="ER2">
+      <c r="ER3">
         <v>2000000</v>
       </c>
-      <c r="ES2">
+      <c r="ES3">
         <v>2000000</v>
       </c>
-      <c r="ET2">
+      <c r="ET3">
         <v>2000000</v>
       </c>
-      <c r="EU2">
+      <c r="EU3">
         <v>2000000</v>
       </c>
-      <c r="EV2">
+      <c r="EV3">
         <v>2000000</v>
       </c>
-      <c r="EW2">
+      <c r="EW3">
         <v>2000000</v>
       </c>
-      <c r="EX2">
+      <c r="EX3">
         <v>2000000</v>
       </c>
-      <c r="EY2">
+      <c r="EY3">
         <v>2000000</v>
       </c>
-      <c r="EZ2">
+      <c r="EZ3">
         <v>2000000</v>
       </c>
-      <c r="FA2">
+      <c r="FA3">
         <v>2000000</v>
       </c>
-      <c r="FB2">
+      <c r="FB3">
         <v>2000000</v>
       </c>
-      <c r="FC2">
+      <c r="FC3">
         <v>2000000</v>
       </c>
-      <c r="FD2">
+      <c r="FD3">
         <v>2100000</v>
       </c>
-      <c r="FE2">
+      <c r="FE3">
         <v>2200000</v>
       </c>
-      <c r="FF2">
+      <c r="FF3">
         <v>2200000</v>
       </c>
-      <c r="FG2">
+      <c r="FG3">
         <v>2200000</v>
       </c>
-      <c r="FH2">
+      <c r="FH3">
         <v>2200000</v>
       </c>
-      <c r="FI2">
+      <c r="FI3">
         <v>2277777.7779999999</v>
       </c>
-      <c r="FJ2">
+      <c r="FJ3">
         <v>2300000</v>
       </c>
-      <c r="FK2">
+      <c r="FK3">
         <v>2300000</v>
       </c>
-      <c r="FL2">
+      <c r="FL3">
         <v>2400000</v>
       </c>
-      <c r="FM2">
+      <c r="FM3">
         <v>2400000</v>
       </c>
-      <c r="FN2">
+      <c r="FN3">
         <v>2500000</v>
       </c>
-      <c r="FO2">
+      <c r="FO3">
         <v>2500000</v>
       </c>
-      <c r="FP2">
+      <c r="FP3">
         <v>2500000</v>
       </c>
-      <c r="FQ2">
+      <c r="FQ3">
         <v>2540000</v>
       </c>
-      <c r="FR2">
+      <c r="FR3">
         <v>2570000</v>
       </c>
-      <c r="FS2">
+      <c r="FS3">
         <v>2589900</v>
       </c>
-      <c r="FT2">
+      <c r="FT3">
         <v>2600000</v>
       </c>
-      <c r="FU2">
+      <c r="FU3">
         <v>2600000</v>
       </c>
-      <c r="FV2">
+      <c r="FV3">
         <v>2600000</v>
       </c>
-      <c r="FW2">
+      <c r="FW3">
         <v>2600000</v>
       </c>
-      <c r="FX2">
+      <c r="FX3">
         <v>2600000</v>
       </c>
-      <c r="FY2">
+      <c r="FY3">
         <v>2625000</v>
       </c>
-      <c r="FZ2">
+      <c r="FZ3">
         <v>2700000</v>
       </c>
-      <c r="GA2">
+      <c r="GA3">
         <v>2700000</v>
       </c>
-      <c r="GB2">
+      <c r="GB3">
         <v>2700000</v>
       </c>
-      <c r="GC2">
+      <c r="GC3">
         <v>3000000</v>
       </c>
-      <c r="GD2">
+      <c r="GD3">
         <v>3000000</v>
       </c>
-      <c r="GE2">
+      <c r="GE3">
         <v>3000000</v>
       </c>
-      <c r="GF2">
+      <c r="GF3">
         <v>3000000</v>
       </c>
-      <c r="GG2">
+      <c r="GG3">
         <v>3000000</v>
       </c>
-      <c r="GH2">
+      <c r="GH3">
         <v>3000000</v>
       </c>
-      <c r="GI2">
+      <c r="GI3">
         <v>3000000</v>
       </c>
-      <c r="GJ2">
+      <c r="GJ3">
         <v>3000000</v>
       </c>
-      <c r="GK2">
+      <c r="GK3">
         <v>3000000</v>
       </c>
-      <c r="GL2">
+      <c r="GL3">
         <v>3000000</v>
       </c>
-      <c r="GM2">
+      <c r="GM3">
         <v>3000000</v>
       </c>
-      <c r="GN2">
+      <c r="GN3">
         <v>3000000</v>
       </c>
-      <c r="GO2">
+      <c r="GO3">
         <v>3000000</v>
       </c>
-      <c r="GP2">
+      <c r="GP3">
         <v>3000000</v>
       </c>
-      <c r="GQ2">
+      <c r="GQ3">
         <v>3000000</v>
       </c>
-      <c r="GR2">
+      <c r="GR3">
         <v>3000000</v>
       </c>
-      <c r="GS2">
+      <c r="GS3">
         <v>3000000</v>
       </c>
-      <c r="GT2">
+      <c r="GT3">
         <v>3000000</v>
       </c>
-      <c r="GU2">
+      <c r="GU3">
         <v>3000000</v>
       </c>
-      <c r="GV2">
+      <c r="GV3">
         <v>3000000</v>
       </c>
-      <c r="GW2">
+      <c r="GW3">
         <v>3000000</v>
       </c>
-      <c r="GX2">
+      <c r="GX3">
         <v>3000000</v>
       </c>
-      <c r="GY2">
+      <c r="GY3">
         <v>3000000</v>
       </c>
-      <c r="GZ2">
+      <c r="GZ3">
         <v>3000000</v>
       </c>
-      <c r="HA2">
+      <c r="HA3">
         <v>3000000</v>
       </c>
-      <c r="HB2">
+      <c r="HB3">
         <v>3000000</v>
       </c>
-      <c r="HC2">
+      <c r="HC3">
         <v>3180000</v>
       </c>
-      <c r="HD2">
+      <c r="HD3">
         <v>3200000</v>
       </c>
-      <c r="HE2">
+      <c r="HE3">
         <v>3200000</v>
       </c>
-      <c r="HF2">
+      <c r="HF3">
         <v>3300000</v>
       </c>
-      <c r="HG2">
+      <c r="HG3">
         <v>3500000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>